--- a/docs/Papilddati/SuguApraksti_SvarisanaiEkologija.xlsx
+++ b/docs/Papilddati/SuguApraksti_SvarisanaiEkologija.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrisavotins/Documents/projekti/LVAFA_SDMs/Darbam/PutnuSDMs_gramata/Papilddati/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93479173-B312-E843-B354-B3041B457F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808E9352-949D-0449-A179-9ADE51B431EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{9705C801-64EC-4F4E-91FC-5BC164683EEB}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Populacija_LV</t>
   </si>
   <si>
-    <t>Pupulacija_Eiropa</t>
-  </si>
-  <si>
     <t>PopProp_LV</t>
   </si>
   <si>
@@ -816,6 +813,9 @@
   </si>
   <si>
     <t>dzeltenā stērste Emberiza citrinella</t>
+  </si>
+  <si>
+    <t>Populacija_Eiropa</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1197,7 @@
   <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1213,33 +1213,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>735</v>
@@ -1254,13 +1254,13 @@
         <v>-50.8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1">
         <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1">
         <v>0.94689999999999996</v>
@@ -1268,10 +1268,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>742</v>
@@ -1286,13 +1286,13 @@
         <v>17.32</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1">
         <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1">
         <v>1.0088999999999999</v>
@@ -1300,10 +1300,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>10813</v>
@@ -1318,13 +1318,13 @@
         <v>-79.099999999999994</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1">
         <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1">
         <v>0.89419999999999999</v>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C5" s="1">
         <v>1932</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1">
         <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1364,10 +1364,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C6" s="1">
         <v>9457</v>
@@ -1382,13 +1382,13 @@
         <v>34</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1">
         <v>22</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1">
         <v>1.0134000000000001</v>
@@ -1396,10 +1396,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C7" s="1">
         <v>508</v>
@@ -1414,13 +1414,13 @@
         <v>85.56</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1">
         <v>7</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1">
         <v>1.0923</v>
@@ -1428,10 +1428,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C8" s="1">
         <v>316</v>
@@ -1446,13 +1446,13 @@
         <v>82.57</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="1">
         <v>6</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1">
         <v>1.1054999999999999</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C9" s="1">
         <v>219</v>
@@ -1478,13 +1478,13 @@
         <v>213.88</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="1">
         <v>19</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1">
         <v>1.0621</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C10" s="1">
         <v>548</v>
@@ -1510,13 +1510,13 @@
         <v>-68.38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="1">
         <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1">
         <v>0.92610000000000003</v>
@@ -1524,10 +1524,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C11" s="1">
         <v>894</v>
@@ -1542,13 +1542,13 @@
         <v>-8.7100000000000009</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" s="1">
         <v>19</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1">
         <v>0.99519999999999997</v>
@@ -1556,10 +1556,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C12" s="1">
         <v>173</v>
@@ -1574,13 +1574,13 @@
         <v>-87.5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" s="1">
         <v>27</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1">
         <v>0.92589999999999995</v>
@@ -1588,10 +1588,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C13" s="1">
         <v>145</v>
@@ -1606,13 +1606,13 @@
         <v>-74</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" s="1">
         <v>27</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1">
         <v>0.95130000000000003</v>
@@ -1620,10 +1620,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C14" s="1">
         <v>229</v>
@@ -1638,13 +1638,13 @@
         <v>279.88</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" s="1">
         <v>19</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1">
         <v>1.0728</v>
@@ -1652,10 +1652,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -1670,13 +1670,13 @@
         <v>-81.5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15" s="1">
         <v>27</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1">
         <v>0.93940000000000001</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C16" s="1">
         <v>126</v>
@@ -1702,13 +1702,13 @@
         <v>16.515000000000001</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" s="1">
         <v>19</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1">
         <v>1.0081</v>
@@ -1716,10 +1716,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C17" s="1">
         <v>279</v>
@@ -1734,13 +1734,13 @@
         <v>-37.6</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17" s="1">
         <v>19</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1">
         <v>0.97550000000000003</v>
@@ -1748,10 +1748,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C18" s="1">
         <v>13638</v>
@@ -1766,13 +1766,13 @@
         <v>-32.5</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H18" s="1">
         <v>27</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1">
         <v>0.98550000000000004</v>
@@ -1780,10 +1780,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C19" s="1">
         <v>6651</v>
@@ -1798,13 +1798,13 @@
         <v>-51.7</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H19" s="1">
         <v>14</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1">
         <v>0.94930000000000003</v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C20" s="1">
         <v>22616</v>
@@ -1830,13 +1830,13 @@
         <v>483</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20" s="1">
         <v>27</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1">
         <v>1.0674999999999999</v>
@@ -1844,10 +1844,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C21" s="1">
         <v>1251</v>
@@ -1862,13 +1862,13 @@
         <v>44.5</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21" s="1">
         <v>27</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" s="1">
         <v>1.0137</v>
@@ -1876,10 +1876,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C22" s="1">
         <v>58676</v>
@@ -1894,13 +1894,13 @@
         <v>-22.6</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="1">
         <v>13</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22" s="1">
         <v>0.98050000000000004</v>
@@ -1908,10 +1908,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C23" s="1">
         <v>781</v>
@@ -1926,13 +1926,13 @@
         <v>-4.0999999999999996</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="1">
         <v>13</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" s="1">
         <v>0.99680000000000002</v>
@@ -1940,10 +1940,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C24" s="1">
         <v>316</v>
@@ -1958,13 +1958,13 @@
         <v>-10.56</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H24" s="1">
         <v>7</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J24" s="1">
         <v>0.98419999999999996</v>
@@ -1972,10 +1972,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C25" s="1">
         <v>6372</v>
@@ -1990,13 +1990,13 @@
         <v>-29</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25" s="1">
         <v>27</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J25" s="1">
         <v>0.98740000000000006</v>
@@ -2004,10 +2004,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C26" s="1">
         <v>5292</v>
@@ -2022,13 +2022,13 @@
         <v>68.2</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H26" s="1">
         <v>14</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J26" s="1">
         <v>1.0378000000000001</v>
@@ -2036,10 +2036,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C27" s="1">
         <v>109</v>
@@ -2054,13 +2054,13 @@
         <v>-21</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H27" s="1">
         <v>6</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J27" s="1">
         <v>0.96150000000000002</v>
@@ -2068,10 +2068,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C28" s="1">
         <v>13846</v>
@@ -2086,13 +2086,13 @@
         <v>38.46</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H28" s="1">
         <v>7</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J28" s="1">
         <v>1.0476000000000001</v>
@@ -2100,10 +2100,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C29" s="1">
         <v>422</v>
@@ -2118,13 +2118,13 @@
         <v>3.77</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H29" s="1">
         <v>18</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J29" s="1">
         <v>1.0021</v>
@@ -2132,10 +2132,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C30" s="1">
         <v>63</v>
@@ -2150,13 +2150,13 @@
         <v>-53.1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H30" s="1">
         <v>7</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J30" s="1">
         <v>0.89749999999999996</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C31" s="1">
         <v>60</v>
@@ -2182,13 +2182,13 @@
         <v>-36.76</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H31" s="1">
         <v>19</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J31" s="1">
         <v>0.97619999999999996</v>
@@ -2196,10 +2196,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C32" s="1">
         <v>378</v>
@@ -2214,13 +2214,13 @@
         <v>3.67</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H32" s="1">
         <v>7</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J32" s="1">
         <v>1.0052000000000001</v>
@@ -2228,10 +2228,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C33" s="1">
         <v>36</v>
@@ -2246,13 +2246,13 @@
         <v>-51.37</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H33" s="1">
         <v>19</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J33" s="1">
         <v>0.96279999999999999</v>
@@ -2260,10 +2260,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C34" s="1">
         <v>636</v>
@@ -2278,13 +2278,13 @@
         <v>-63.5</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H34" s="1">
         <v>27</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J34" s="1">
         <v>0.96340000000000003</v>
@@ -2292,10 +2292,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C35" s="1">
         <v>159268</v>
@@ -2310,13 +2310,13 @@
         <v>-18.8</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H35" s="1">
         <v>14</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J35" s="1">
         <v>0.98519999999999996</v>
@@ -2324,10 +2324,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C36" s="1">
         <v>52</v>
@@ -2342,13 +2342,13 @@
         <v>-5.91</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H36" s="1">
         <v>18</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J36" s="1">
         <v>0.99660000000000004</v>
@@ -2356,10 +2356,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C37" s="1">
         <v>256</v>
@@ -2374,13 +2374,13 @@
         <v>-24.979991989999998</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H37" s="1">
         <v>12</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J37" s="1">
         <v>0.97629999999999995</v>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C38" s="1">
         <v>33</v>
@@ -2406,13 +2406,13 @@
         <v>-60.89</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H38" s="1">
         <v>19</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J38" s="1">
         <v>0.95179999999999998</v>
@@ -2420,10 +2420,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C39" s="1">
         <v>245</v>
@@ -2438,13 +2438,13 @@
         <v>-14.3</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H39" s="1">
         <v>14</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J39" s="1">
         <v>0.98899999999999999</v>
@@ -2452,10 +2452,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C40" s="1">
         <v>84353</v>
@@ -2470,13 +2470,13 @@
         <v>5.2</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H40" s="1">
         <v>14</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J40" s="1">
         <v>1.0036</v>
@@ -2484,10 +2484,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C41" s="1">
         <v>5</v>
@@ -2502,13 +2502,13 @@
         <v>-50.21</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H41" s="1">
         <v>19</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J41" s="1">
         <v>0.96399999999999997</v>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C42" s="1">
         <v>205</v>
@@ -2534,13 +2534,13 @@
         <v>-37.08</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H42" s="1">
         <v>18</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J42" s="1">
         <v>0.97460000000000002</v>
@@ -2548,10 +2548,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="C43" s="1">
         <v>386</v>
@@ -2566,13 +2566,13 @@
         <v>-33.75</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H43" s="1">
         <v>18</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J43" s="1">
         <v>0.97740000000000005</v>
@@ -2580,10 +2580,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="C44" s="1">
         <v>5894</v>
@@ -2598,13 +2598,13 @@
         <v>-23</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H44" s="1">
         <v>12</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J44" s="1">
         <v>0.97850000000000004</v>
@@ -2612,10 +2612,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C45" s="1">
         <v>1993</v>
@@ -2630,13 +2630,13 @@
         <v>77</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H45" s="1">
         <v>12</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J45" s="1">
         <v>1.0487</v>
@@ -2644,10 +2644,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="C46" s="1">
         <v>6823</v>
@@ -2662,13 +2662,13 @@
         <v>-26</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H46" s="1">
         <v>12</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J46" s="1">
         <v>0.97519999999999996</v>
@@ -2676,10 +2676,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C47" s="1">
         <v>17302</v>
@@ -2694,13 +2694,13 @@
         <v>31</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H47" s="1">
         <v>12</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J47" s="1">
         <v>1.0227999999999999</v>
@@ -2708,10 +2708,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C48" s="1">
         <v>3134</v>
@@ -2726,13 +2726,13 @@
         <v>-48</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H48" s="1">
         <v>12</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J48" s="1">
         <v>0.94699999999999995</v>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="C49" s="1">
         <v>24</v>
@@ -2758,13 +2758,13 @@
         <v>-30</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H49" s="1">
         <v>12</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J49" s="1">
         <v>0.97070000000000001</v>
@@ -2772,10 +2772,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C50" s="1">
         <v>230</v>
@@ -2790,13 +2790,13 @@
         <v>91.8</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H50" s="1">
         <v>7</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J50" s="1">
         <v>1.0974999999999999</v>
@@ -2804,10 +2804,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C51" s="1">
         <v>2767</v>
@@ -2822,13 +2822,13 @@
         <v>184.4</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H51" s="1">
         <v>12</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J51" s="1">
         <v>1.091</v>
@@ -2836,10 +2836,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C52" s="1">
         <v>4294</v>
@@ -2854,13 +2854,13 @@
         <v>531.66999999999996</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H52" s="1">
         <v>12</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J52" s="1">
         <v>1.1659999999999999</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C53" s="1">
         <v>13045</v>
@@ -2886,13 +2886,13 @@
         <v>10.32</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H53" s="1">
         <v>12</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J53" s="1">
         <v>1.0082</v>
@@ -2900,10 +2900,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C54" s="1">
         <v>7690</v>
@@ -2918,13 +2918,13 @@
         <v>21.18</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H54" s="1">
         <v>12</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J54" s="1">
         <v>1.0161</v>
@@ -2932,10 +2932,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C55" s="1">
         <v>2383</v>
@@ -2950,13 +2950,13 @@
         <v>-79.53</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H55" s="1">
         <v>12</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J55" s="1">
         <v>0.87619999999999998</v>
@@ -2964,10 +2964,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C56" s="1">
         <v>134</v>
@@ -2982,13 +2982,13 @@
         <v>29.7</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H56" s="1">
         <v>7</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J56" s="1">
         <v>1.0378000000000001</v>
@@ -2996,10 +2996,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C57" s="1">
         <v>12</v>
@@ -3014,13 +3014,13 @@
         <v>265.14999999999998</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H57" s="1">
         <v>7</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J57" s="1">
         <v>1.2032</v>
@@ -3028,10 +3028,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C58" s="1">
         <v>60</v>
@@ -3046,13 +3046,13 @@
         <v>112.9</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H58" s="1">
         <v>7</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J58" s="1">
         <v>1.1140000000000001</v>
@@ -3060,10 +3060,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C59" s="1">
         <v>22676</v>
@@ -3078,13 +3078,13 @@
         <v>-28.95</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H59" s="1">
         <v>12</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J59" s="1">
         <v>0.97189999999999999</v>
@@ -3092,10 +3092,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C60" s="1">
         <v>335</v>
@@ -3110,13 +3110,13 @@
         <v>67.7</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H60" s="1">
         <v>19</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J60" s="1">
         <v>1.0276000000000001</v>
@@ -3124,10 +3124,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="C61" s="1">
         <v>15</v>
@@ -3142,13 +3142,13 @@
         <v>-30.37</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H61" s="1">
         <v>6</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J61" s="1">
         <v>0.9415</v>
@@ -3156,10 +3156,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C62" s="1">
         <v>6325</v>
@@ -3174,13 +3174,13 @@
         <v>-9.65</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H62" s="1">
         <v>11</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J62" s="1">
         <v>0.99080000000000001</v>
@@ -3188,10 +3188,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="C63" s="1">
         <v>3873</v>
@@ -3206,13 +3206,13 @@
         <v>135.22</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H63" s="1">
         <v>11</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J63" s="1">
         <v>1.0809</v>
@@ -3220,10 +3220,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C64" s="1">
         <v>7746</v>
@@ -3238,13 +3238,13 @@
         <v>-1</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H64" s="1">
         <v>11</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J64" s="1">
         <v>0.99909999999999999</v>
@@ -3252,10 +3252,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="C65" s="1">
         <v>1414</v>
@@ -3270,13 +3270,13 @@
         <v>-88.08</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H65" s="1">
         <v>11</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J65" s="1">
         <v>0.82420000000000004</v>
@@ -3284,10 +3284,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="C66" s="1">
         <v>7071</v>
@@ -3302,13 +3302,13 @@
         <v>15.03</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H66" s="1">
         <v>11</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J66" s="1">
         <v>1.0127999999999999</v>
@@ -3316,10 +3316,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="C67" s="1">
         <v>9165</v>
@@ -3334,13 +3334,13 @@
         <v>-60.63</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H67" s="1">
         <v>11</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J67" s="1">
         <v>0.91869999999999996</v>
@@ -3348,10 +3348,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="C68" s="1">
         <v>5292</v>
@@ -3366,13 +3366,13 @@
         <v>116.49</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H68" s="1">
         <v>11</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J68" s="1">
         <v>1.0727</v>
@@ -3380,10 +3380,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="C69" s="1">
         <v>77460</v>
@@ -3398,13 +3398,13 @@
         <v>-34.409999999999997</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H69" s="1">
         <v>11</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J69" s="1">
         <v>0.96240000000000003</v>
@@ -3412,10 +3412,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="C70" s="1">
         <v>1138</v>
@@ -3430,13 +3430,13 @@
         <v>296.7</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H70" s="1">
         <v>5</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J70" s="1">
         <v>1.3172999999999999</v>
@@ -3444,10 +3444,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="C71" s="1">
         <v>35</v>
@@ -3462,13 +3462,13 @@
         <v>-26.21</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H71" s="1">
         <v>18</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J71" s="1">
         <v>0.98329999999999995</v>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="C72" s="1">
         <v>126495</v>
@@ -3494,13 +3494,13 @@
         <v>15.4</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H72" s="1">
         <v>14</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J72" s="1">
         <v>1.0103</v>
@@ -3508,10 +3508,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C73" s="1">
         <v>55917</v>
@@ -3526,13 +3526,13 @@
         <v>-45.6</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H73" s="1">
         <v>14</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J73" s="1">
         <v>0.95740000000000003</v>
@@ -3540,10 +3540,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="C74" s="1">
         <v>387</v>
@@ -3558,13 +3558,13 @@
         <v>166.2</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H74" s="1">
         <v>19</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J74" s="1">
         <v>1.0528999999999999</v>
@@ -3572,10 +3572,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="C75" s="1">
         <v>7822</v>
@@ -3590,13 +3590,13 @@
         <v>-3.3</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H75" s="1">
         <v>14</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J75" s="1">
         <v>0.99760000000000004</v>
@@ -3604,10 +3604,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="C76" s="1">
         <v>127683</v>
@@ -3622,13 +3622,13 @@
         <v>38.700000000000003</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H76" s="1">
         <v>14</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J76" s="1">
         <v>1.0236000000000001</v>
@@ -3636,10 +3636,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="C77" s="1">
         <v>189378</v>
@@ -3654,13 +3654,13 @@
         <v>56</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H77" s="1">
         <v>14</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J77" s="1">
         <v>1.0323</v>
@@ -3668,10 +3668,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="C78" s="1">
         <v>87907</v>
@@ -3686,13 +3686,13 @@
         <v>-56.4</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H78" s="1">
         <v>14</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J78" s="1">
         <v>0.94240000000000002</v>
@@ -3700,10 +3700,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="C79" s="1">
         <v>146961</v>
@@ -3718,13 +3718,13 @@
         <v>-26.2</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H79" s="1">
         <v>14</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J79" s="1">
         <v>0.97850000000000004</v>
@@ -3732,10 +3732,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="C80" s="1">
         <v>14191</v>
@@ -3750,13 +3750,13 @@
         <v>-18.8</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H80" s="1">
         <v>14</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J80" s="1">
         <v>0.98519999999999996</v>
@@ -3764,10 +3764,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="C81" s="1">
         <v>712625</v>
@@ -3782,13 +3782,13 @@
         <v>-17.8</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H81" s="1">
         <v>14</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J81" s="1">
         <v>0.98609999999999998</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="C82" s="1">
         <v>775</v>
@@ -3814,13 +3814,13 @@
         <v>592.82000000000005</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H82" s="1">
         <v>7</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J82" s="1">
         <v>1.3185</v>
@@ -3828,10 +3828,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="C83" s="1">
         <v>131842</v>
@@ -3846,13 +3846,13 @@
         <v>-23.4</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H83" s="1">
         <v>13</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J83" s="1">
         <v>0.97970000000000002</v>
@@ -3860,10 +3860,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="C84" s="1">
         <v>3000</v>
@@ -3878,13 +3878,13 @@
         <v>-54.5</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H84" s="1">
         <v>13</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J84" s="1">
         <v>0.94120000000000004</v>
@@ -3892,10 +3892,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="C85" s="1">
         <v>46215</v>
@@ -3910,13 +3910,13 @@
         <v>-11</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H85" s="1">
         <v>14</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J85" s="1">
         <v>0.99170000000000003</v>
@@ -3924,10 +3924,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="C86" s="1">
         <v>31970</v>
@@ -3942,13 +3942,13 @@
         <v>-38</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H86" s="1">
         <v>14</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J86" s="1">
         <v>0.96640000000000004</v>
@@ -3956,10 +3956,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="C87" s="1">
         <v>109793</v>
@@ -3974,13 +3974,13 @@
         <v>44.1</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H87" s="1">
         <v>14</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J87" s="1">
         <v>1.0264</v>
@@ -3988,10 +3988,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="C88" s="1">
         <v>600150</v>
@@ -4006,13 +4006,13 @@
         <v>-12.4</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H88" s="1">
         <v>4</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J88" s="1">
         <v>0.96740000000000004</v>
@@ -4020,10 +4020,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="C89" s="1">
         <v>16764</v>
@@ -4038,13 +4038,13 @@
         <v>-54.5</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H89" s="1">
         <v>14</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J89" s="1">
         <v>0.94530000000000003</v>
@@ -4052,10 +4052,10 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="C90" s="1">
         <v>3087</v>
@@ -4070,13 +4070,13 @@
         <v>26.03</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H90" s="1">
         <v>7</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J90" s="1">
         <v>1.0336000000000001</v>
@@ -4084,10 +4084,10 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="C91" s="1">
         <v>462589</v>
@@ -4102,13 +4102,13 @@
         <v>31.4</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H91" s="1">
         <v>14</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J91" s="1">
         <v>1.0197000000000001</v>
@@ -4116,10 +4116,10 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="C92" s="1">
         <v>213325</v>
@@ -4134,13 +4134,13 @@
         <v>-22.6</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H92" s="1">
         <v>14</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J92" s="1">
         <v>0.9819</v>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="C93" s="1">
         <v>104927</v>
@@ -4166,13 +4166,13 @@
         <v>5.2</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H93" s="1">
         <v>14</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J93" s="1">
         <v>1.0036</v>
@@ -4180,10 +4180,10 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="C94" s="1">
         <v>364025</v>
@@ -4198,13 +4198,13 @@
         <v>29</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H94" s="1">
         <v>14</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J94" s="1">
         <v>1.0184</v>
@@ -4212,10 +4212,10 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="C95" s="1">
         <v>28862</v>
@@ -4230,13 +4230,13 @@
         <v>59.8</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H95" s="1">
         <v>14</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J95" s="1">
         <v>1.034</v>
@@ -4244,10 +4244,10 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="C96" s="1">
         <v>18844</v>
@@ -4262,13 +4262,13 @@
         <v>-78.900000000000006</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H96" s="1">
         <v>14</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J96" s="1">
         <v>0.89480000000000004</v>
@@ -4276,10 +4276,10 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="C97" s="1">
         <v>212</v>
@@ -4294,13 +4294,13 @@
         <v>-40</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H97" s="1">
         <v>27</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J97" s="1">
         <v>0.98129999999999995</v>
@@ -4308,10 +4308,10 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="C98" s="1">
         <v>161177</v>
@@ -4326,13 +4326,13 @@
         <v>-5.7</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H98" s="1">
         <v>14</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J98" s="1">
         <v>0.99580000000000002</v>
@@ -4340,10 +4340,10 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="C99" s="1">
         <v>72611</v>
@@ -4358,13 +4358,13 @@
         <v>113.8</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H99" s="1">
         <v>14</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J99" s="1">
         <v>1.0558000000000001</v>
@@ -4372,10 +4372,10 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="C100" s="1">
         <v>154375</v>
@@ -4390,13 +4390,13 @@
         <v>36.6</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H100" s="1">
         <v>14</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J100" s="1">
         <v>1.0225</v>
@@ -4404,10 +4404,10 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="C101" s="1">
         <v>262368</v>
@@ -4422,13 +4422,13 @@
         <v>-30.2</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H101" s="1">
         <v>14</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J101" s="1">
         <v>0.97460000000000002</v>
@@ -4436,10 +4436,10 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="C102" s="1">
         <v>322427</v>
@@ -4454,13 +4454,13 @@
         <v>32</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H102" s="1">
         <v>14</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J102" s="1">
         <v>1.02</v>
@@ -4468,10 +4468,10 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="C103" s="1">
         <v>748</v>
@@ -4486,13 +4486,13 @@
         <v>21524.06</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H103" s="1">
         <v>7</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J103" s="1">
         <v>2.1556000000000002</v>
@@ -4500,10 +4500,10 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="C104" s="1">
         <v>110259</v>
@@ -4518,13 +4518,13 @@
         <v>17.7</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H104" s="1">
         <v>14</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J104" s="1">
         <v>1.0117</v>
@@ -4532,10 +4532,10 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="C105" s="1">
         <v>87582</v>
@@ -4550,13 +4550,13 @@
         <v>3.4</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H105" s="1">
         <v>14</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J105" s="1">
         <v>1.0024</v>
@@ -4564,10 +4564,10 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="C106" s="1">
         <v>99</v>
@@ -4582,13 +4582,13 @@
         <v>-46.55</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H106" s="1">
         <v>19</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J106" s="1">
         <v>0.96760000000000002</v>
@@ -4596,10 +4596,10 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="C107" s="1">
         <v>14717</v>
@@ -4614,13 +4614,13 @@
         <v>63.15</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H107" s="1">
         <v>14</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J107" s="1">
         <v>1.0356000000000001</v>
@@ -4628,10 +4628,10 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="C108" s="1">
         <v>141</v>
@@ -4646,13 +4646,13 @@
         <v>75.41</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H108" s="1">
         <v>17</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J108" s="1">
         <v>1.0336000000000001</v>
@@ -4660,10 +4660,10 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="C109" s="1">
         <v>89115</v>
@@ -4678,13 +4678,13 @@
         <v>158.5</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H109" s="1">
         <v>14</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J109" s="1">
         <v>1.0702</v>
@@ -4692,10 +4692,10 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="C110" s="1">
         <v>139750</v>
@@ -4710,13 +4710,13 @@
         <v>-21.2</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H110" s="1">
         <v>14</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J110" s="1">
         <v>0.98309999999999997</v>
@@ -4724,10 +4724,10 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="C111" s="1">
         <v>178680</v>
@@ -4742,13 +4742,13 @@
         <v>51.4</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H111" s="1">
         <v>14</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J111" s="1">
         <v>1.0301</v>
@@ -4756,10 +4756,10 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="C112" s="1">
         <v>150606</v>
@@ -4774,13 +4774,13 @@
         <v>118.9</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H112" s="1">
         <v>14</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J112" s="1">
         <v>1.0576000000000001</v>
@@ -4788,10 +4788,10 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="C113" s="1">
         <v>17248</v>
@@ -4806,13 +4806,13 @@
         <v>19.2</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H113" s="1">
         <v>14</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J113" s="1">
         <v>1.0125999999999999</v>
@@ -4820,10 +4820,10 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="C114" s="1">
         <v>4366</v>
@@ -4838,13 +4838,13 @@
         <v>-25.8</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H114" s="1">
         <v>14</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J114" s="1">
         <v>0.97889999999999999</v>
@@ -4852,10 +4852,10 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="C115" s="1">
         <v>114051</v>
@@ -4870,13 +4870,13 @@
         <v>94</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H115" s="1">
         <v>14</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J115" s="1">
         <v>1.0485</v>
@@ -4884,10 +4884,10 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="C116" s="1">
         <v>317</v>
@@ -4902,13 +4902,13 @@
         <v>-69.94</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H116" s="1">
         <v>11</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J116" s="1">
         <v>0.89649999999999996</v>
@@ -4916,10 +4916,10 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="C117" s="1">
         <v>349757</v>
@@ -4934,13 +4934,13 @@
         <v>47.2</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H117" s="1">
         <v>14</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J117" s="1">
         <v>1.028</v>
